--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/HAWAII_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/HAWAII_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -579,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Villa De Alvarez</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -711,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -724,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -737,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -768,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -799,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -812,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -825,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -856,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -869,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -882,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -895,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -908,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -921,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -934,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -947,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -960,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -973,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -986,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1017,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1030,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1043,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1056,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1100,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -1113,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -1126,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Puruandiro</t>
@@ -1139,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tocumbo</t>
@@ -1152,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1165,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1196,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -1209,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -1222,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -1235,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1248,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1261,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1274,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1305,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1318,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>San Juan Atepec</t>
@@ -1344,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -1357,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Santo Tomas Ocotepec</t>
@@ -1370,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1401,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -1414,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Los Reyes De Juarez</t>
@@ -1427,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1440,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -1453,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -1466,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1497,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1528,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1559,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1590,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -1603,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1634,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1665,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1696,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tetla De La Solidaridad</t>
@@ -1709,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1740,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
